--- a/Project_Plan_Gantt_Chart.xlsx
+++ b/Project_Plan_Gantt_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomeTheater\Documents\GitHub\AIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312BED0D-CEA1-4C37-A98D-74A22ABBF390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2D10AD-1417-4CFA-AC2C-498AF6E36652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{9AF67496-700E-46FF-A2D5-F09A0D98EED1}"/>
   </bookViews>
@@ -584,12 +584,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -604,6 +598,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:FS41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="A1:XFD1048576"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,24 +1118,24 @@
       <c r="E1" s="17"/>
       <c r="F1" s="2"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
@@ -1294,11 +1294,11 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="27">
         <f>D7</f>
         <v>44599</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1477,11 +1477,11 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <f ca="1">NOW()</f>
-        <v>44715.894703587961</v>
-      </c>
-      <c r="E3" s="30"/>
+        <v>44720.494968055558</v>
+      </c>
+      <c r="E3" s="28"/>
       <c r="F3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1663,186 +1663,186 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <f>H5</f>
         <v>44599</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="26">
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="24">
         <f>O5</f>
         <v>44606</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="26">
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="24">
         <f>V5</f>
         <v>44613</v>
       </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="26">
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="24">
         <f t="shared" ref="AC4" si="0">AC5</f>
         <v>44620</v>
       </c>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="26">
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="24">
         <f t="shared" ref="AJ4" si="1">AJ5</f>
         <v>44627</v>
       </c>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="26">
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="24">
         <f t="shared" ref="AQ4" si="2">AQ5</f>
         <v>44634</v>
       </c>
-      <c r="AR4" s="27"/>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="26">
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="24">
         <f t="shared" ref="AX4" si="3">AX5</f>
         <v>44641</v>
       </c>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="27"/>
-      <c r="BB4" s="27"/>
-      <c r="BC4" s="27"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="26">
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="25"/>
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="24">
         <f t="shared" ref="BE4" si="4">BE5</f>
         <v>44648</v>
       </c>
-      <c r="BF4" s="27"/>
-      <c r="BG4" s="27"/>
-      <c r="BH4" s="27"/>
-      <c r="BI4" s="27"/>
-      <c r="BJ4" s="27"/>
-      <c r="BK4" s="28"/>
-      <c r="BL4" s="26">
+      <c r="BF4" s="25"/>
+      <c r="BG4" s="25"/>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="24">
         <f t="shared" ref="BL4" si="5">BL5</f>
         <v>44655</v>
       </c>
-      <c r="BM4" s="27"/>
-      <c r="BN4" s="27"/>
-      <c r="BO4" s="27"/>
-      <c r="BP4" s="27"/>
-      <c r="BQ4" s="27"/>
-      <c r="BR4" s="28"/>
-      <c r="BS4" s="26">
+      <c r="BM4" s="25"/>
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="26"/>
+      <c r="BS4" s="24">
         <f t="shared" ref="BS4" si="6">BS5</f>
         <v>44662</v>
       </c>
-      <c r="BT4" s="27"/>
-      <c r="BU4" s="27"/>
-      <c r="BV4" s="27"/>
-      <c r="BW4" s="27"/>
-      <c r="BX4" s="27"/>
-      <c r="BY4" s="28"/>
-      <c r="BZ4" s="26">
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="25"/>
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
+      <c r="BX4" s="25"/>
+      <c r="BY4" s="26"/>
+      <c r="BZ4" s="24">
         <f t="shared" ref="BZ4" si="7">BZ5</f>
         <v>44669</v>
       </c>
-      <c r="CA4" s="27"/>
-      <c r="CB4" s="27"/>
-      <c r="CC4" s="27"/>
-      <c r="CD4" s="27"/>
-      <c r="CE4" s="27"/>
-      <c r="CF4" s="28"/>
-      <c r="CG4" s="26">
+      <c r="CA4" s="25"/>
+      <c r="CB4" s="25"/>
+      <c r="CC4" s="25"/>
+      <c r="CD4" s="25"/>
+      <c r="CE4" s="25"/>
+      <c r="CF4" s="26"/>
+      <c r="CG4" s="24">
         <f t="shared" ref="CG4" si="8">CG5</f>
         <v>44676</v>
       </c>
-      <c r="CH4" s="27"/>
-      <c r="CI4" s="27"/>
-      <c r="CJ4" s="27"/>
-      <c r="CK4" s="27"/>
-      <c r="CL4" s="27"/>
-      <c r="CM4" s="28"/>
-      <c r="CN4" s="26">
+      <c r="CH4" s="25"/>
+      <c r="CI4" s="25"/>
+      <c r="CJ4" s="25"/>
+      <c r="CK4" s="25"/>
+      <c r="CL4" s="25"/>
+      <c r="CM4" s="26"/>
+      <c r="CN4" s="24">
         <f t="shared" ref="CN4" si="9">CN5</f>
         <v>44683</v>
       </c>
-      <c r="CO4" s="27"/>
-      <c r="CP4" s="27"/>
-      <c r="CQ4" s="27"/>
-      <c r="CR4" s="27"/>
-      <c r="CS4" s="27"/>
-      <c r="CT4" s="28"/>
-      <c r="CU4" s="26">
+      <c r="CO4" s="25"/>
+      <c r="CP4" s="25"/>
+      <c r="CQ4" s="25"/>
+      <c r="CR4" s="25"/>
+      <c r="CS4" s="25"/>
+      <c r="CT4" s="26"/>
+      <c r="CU4" s="24">
         <f t="shared" ref="CU4" si="10">CU5</f>
         <v>44690</v>
       </c>
-      <c r="CV4" s="27"/>
-      <c r="CW4" s="27"/>
-      <c r="CX4" s="27"/>
-      <c r="CY4" s="27"/>
-      <c r="CZ4" s="27"/>
-      <c r="DA4" s="28"/>
-      <c r="DB4" s="26">
+      <c r="CV4" s="25"/>
+      <c r="CW4" s="25"/>
+      <c r="CX4" s="25"/>
+      <c r="CY4" s="25"/>
+      <c r="CZ4" s="25"/>
+      <c r="DA4" s="26"/>
+      <c r="DB4" s="24">
         <f t="shared" ref="DB4" si="11">DB5</f>
         <v>44697</v>
       </c>
-      <c r="DC4" s="27"/>
-      <c r="DD4" s="27"/>
-      <c r="DE4" s="27"/>
-      <c r="DF4" s="27"/>
-      <c r="DG4" s="27"/>
-      <c r="DH4" s="28"/>
-      <c r="DI4" s="26">
+      <c r="DC4" s="25"/>
+      <c r="DD4" s="25"/>
+      <c r="DE4" s="25"/>
+      <c r="DF4" s="25"/>
+      <c r="DG4" s="25"/>
+      <c r="DH4" s="26"/>
+      <c r="DI4" s="24">
         <f t="shared" ref="DI4" si="12">DI5</f>
         <v>44704</v>
       </c>
-      <c r="DJ4" s="27"/>
-      <c r="DK4" s="27"/>
-      <c r="DL4" s="27"/>
-      <c r="DM4" s="27"/>
-      <c r="DN4" s="27"/>
-      <c r="DO4" s="28"/>
-      <c r="DP4" s="26">
+      <c r="DJ4" s="25"/>
+      <c r="DK4" s="25"/>
+      <c r="DL4" s="25"/>
+      <c r="DM4" s="25"/>
+      <c r="DN4" s="25"/>
+      <c r="DO4" s="26"/>
+      <c r="DP4" s="24">
         <f t="shared" ref="DP4" si="13">DP5</f>
         <v>44711</v>
       </c>
-      <c r="DQ4" s="27"/>
-      <c r="DR4" s="27"/>
-      <c r="DS4" s="27"/>
-      <c r="DT4" s="27"/>
-      <c r="DU4" s="27"/>
-      <c r="DV4" s="28"/>
-      <c r="DW4" s="26">
+      <c r="DQ4" s="25"/>
+      <c r="DR4" s="25"/>
+      <c r="DS4" s="25"/>
+      <c r="DT4" s="25"/>
+      <c r="DU4" s="25"/>
+      <c r="DV4" s="26"/>
+      <c r="DW4" s="24">
         <f t="shared" ref="DW4" si="14">DW5</f>
         <v>44718</v>
       </c>
-      <c r="DX4" s="27"/>
-      <c r="DY4" s="27"/>
-      <c r="DZ4" s="27"/>
-      <c r="EA4" s="27"/>
-      <c r="EB4" s="27"/>
-      <c r="EC4" s="28"/>
+      <c r="DX4" s="25"/>
+      <c r="DY4" s="25"/>
+      <c r="DZ4" s="25"/>
+      <c r="EA4" s="25"/>
+      <c r="EB4" s="25"/>
+      <c r="EC4" s="26"/>
     </row>
     <row r="5" spans="1:175" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -6788,27 +6788,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="CU4:DA4"/>
-    <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="DI4:DO4"/>
-    <mergeCell ref="DP4:DV4"/>
-    <mergeCell ref="DW4:EC4"/>
-    <mergeCell ref="BS4:BY4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BZ4:CF4"/>
-    <mergeCell ref="CG4:CM4"/>
-    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="I1:Z1"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="O4:U4"/>
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I1:Z1"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="DI4:DO4"/>
+    <mergeCell ref="DP4:DV4"/>
+    <mergeCell ref="DW4:EC4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H7:EC32">
